--- a/results/experiments.xlsx
+++ b/results/experiments.xlsx
@@ -9,6 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="20200218094833" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20200218095248" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20200218095546" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20200218100453" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20200218101505" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="20200218105520" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="20200218115303" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="20200218121108" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -472,20 +479,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>20200218094812</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>LogisticRegression</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
                    intercept_scaling=1, l1_ratio=None, max_iter=100,
@@ -494,19 +501,19 @@
                    warm_start=False)</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>0.723</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="0" t="n">
         <v>0.723</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="0" t="n">
         <v>0.723</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="0" t="n">
         <v>0.456</v>
       </c>
     </row>
@@ -514,39 +521,39 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>20200218094819</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>KNeighborsClassifier</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
                      metric_params=None, n_jobs=None, n_neighbors=5, p=2,
                      weights='uniform')</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>0.793</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>0.712</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="0" t="n">
         <v>0.785</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -554,37 +561,37 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>20200218094819</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>GaussianNB</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>0.708</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="0" t="n">
         <v>0.708</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.708</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>0.431</v>
       </c>
     </row>
@@ -592,20 +599,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>20200218094833</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>SVC</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
     decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
@@ -613,20 +620,6637 @@
     tol=0.001, verbose=False)</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>7</v>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>20200218095228</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20200218095234</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20200218095234</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20200218095248</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>20200218095249</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20200218095410</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20200218095411</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20200218095546</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>20200218095909</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20200218095916</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20200218095916</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20200218095931</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20200218095932</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>20200218100054</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>20200218100054</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>20200218100230</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>20200218100231</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>20200218100318</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.514</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>20200218100318</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>20200218100452</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>20200218100846</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20200218100847</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20200218100853</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20200218100853</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20200218100908</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>20200218100909</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>20200218100909</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>20200218101034</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>20200218101034</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>20200218101211</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>20200218101212</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>20200218101213</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>20200218101332</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>20200218101333</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>20200218101505</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>20200218104037</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>20200218104037</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>20200218104044</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>20200218104044</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20200218104059</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>20200218104100</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>20200218104100</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>20200218104225</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>20200218104225</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>20200218104402</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>20200218104403</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>20200218104404</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>20200218104523</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>20200218104523</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>20200218104656</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>20200218104657</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>20200218104657</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>20200218104816</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>20200218104816</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>20200218104950</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>20200218104951</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>20200218104951</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>20200218105107</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>20200218105108</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>20200218105238</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>20200218105239</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>20200218105240</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>20200218105354</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>20200218105354</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>20200218105520</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>qi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>20200218112914</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>20200218112914</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>20200218112921</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>20200218112921</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>20200218112936</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>20200218112936</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>20200218112937</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>20200218113101</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>20200218113101</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>20200218113240</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>20200218113241</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>20200218113242</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>20200218113401</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>20200218113402</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>20200218113537</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>20200218113538</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>20200218113538</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>20200218113658</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>20200218113658</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>20200218113832</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>20200218113833</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>20200218113834</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>20200218113950</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>20200218113950</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>20200218114121</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>20200218114122</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>20200218114123</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>20200218114236</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>20200218114236</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>20200218114402</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>20200218114402</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>20200218114403</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>20200218114502</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>20200218114502</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>20200218114553</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.415</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>20200218114554</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>20200218114554</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>20200218114655</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.543</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>20200218114655</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>20200218114749</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>20200218114750</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>20200218114751</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>20200218114850</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.549</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>20200218114850</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>20200218114940</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>20200218114941</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>20200218114941</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>20200218115040</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>20200218115040</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>20200218115130</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>20200218115131</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>20200218115131</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>20200218115214</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>20200218115214</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>20200218115303</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>qi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Classifier(Full)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Random State</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Train AUC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation AUC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Test AUC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Test MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20200218120119</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20200218120119</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20200218120126</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20200218120126</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
       </c>
       <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20200218120140</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.711</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I6" t="n">
         <v>0.711</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J6" t="n">
         <v>0.711</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K6" t="n">
         <v>0.437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20200218120141</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20200218120142</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20200218120225</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20200218120225</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20200218120316</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20200218120317</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20200218120318</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20200218120418</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20200218120419</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20200218120510</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20200218120511</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20200218120512</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20200218120635</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20200218120635</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20200218120809</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20200218120810</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,
+                   intercept_scaling=1, l1_ratio=None, max_iter=100,
+                   multi_class='auto', n_jobs=None, penalty='l2',
+                   random_state=None, solver='liblinear', tol=0.0001, verbose=0,
+                   warm_start=False)</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20200218120811</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DecisionTreeClassifier(ccp_alpha=0.0, class_weight=None, criterion='gini',
+                       max_depth=None, max_features=None, max_leaf_nodes=None,
+                       min_impurity_decrease=0.0, min_impurity_split=None,
+                       min_samples_leaf=1, min_samples_split=2,
+                       min_weight_fraction_leaf=0.0, presort='deprecated',
+                       random_state=None, splitter='best')</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20200218120933</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier(algorithm='auto', leaf_size=30, metric='minkowski',
+                     metric_params=None, n_jobs=None, n_neighbors=5, p=2,
+                     weights='uniform')</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20200218120933</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GaussianNB(priors=None, var_smoothing=1e-09)</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20200218121108</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SVC(C=1.0, break_ties=False, cache_size=200, class_weight=None, coef0=0.0,
+    decision_function_shape='ovr', degree=3, gamma='auto', kernel='rbf',
+    max_iter=-1, probability=False, random_state=None, shrinking=True,
+    tol=0.001, verbose=False)</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.203</v>
       </c>
     </row>
   </sheetData>
